--- a/python_engine/sequence_seperated_order.xlsx
+++ b/python_engine/sequence_seperated_order.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1744,16 +1744,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SW1250907601</t>
+          <t>SW1250911401</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -1772,18 +1772,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>31940_23500_1300_None_4_M10</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>32041_20500_1300_T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>투명</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PPF-ND-Carbon Pattern PPF</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1796,12 +1800,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SW1250907601</t>
+          <t>SW1250911401</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>32041</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1824,12 +1828,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01576</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>31940_12400_1300_None_4_M10</t>
+          <t>32041_12400_1300_T01576_4_M10</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1839,7 +1843,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>PPF-ND-Carbon Pattern PPF</t>
+          <t>PPF-NS-XTM PLUS(Kaizer)</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1852,25 +1856,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SW1250907601</t>
+          <t>SW1251002001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20920</v>
+        <v>23311</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="G26" t="n">
         <v>1300</v>
@@ -1880,22 +1884,22 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>T014774</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31940_20920_1300_T014774_4_M10</t>
+          <t>32413_23311_1300_T0915_4_M10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>EPU</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>PPF-ND-Carbon Pattern PPF</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1908,25 +1912,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SW1250907601</t>
+          <t>SW1251002001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>32413</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20500</v>
+        <v>12400</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45947</v>
+        <v>45961</v>
       </c>
       <c r="G27" t="n">
         <v>1300</v>
@@ -1936,22 +1940,22 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>T01514</t>
+          <t>T01288|T01715</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>31940_20500_1300_T01514_4_M10</t>
+          <t>32413_12400_1300_T01288|T01715_4_M10</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>PPF-ND-Carbon Pattern PPF</t>
+          <t>PPF-NS-TGA N (OP개선)</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1964,19 +1968,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SW1250907601</t>
+          <t>SW1251002401, SW1250911402</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>25005</v>
+        <v>23311</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -1988,30 +1992,30 @@
         <v>1300</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915|T02098</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>31940_25005_1300_None_4_M10</t>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>후처리</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>PPF-ND-Carbon Pattern PPF</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>303.8590094196293</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2020,19 +2024,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SW1250911401</t>
+          <t>SW1251002401, SW1250911402</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32453</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20500</v>
+        <v>12400</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
@@ -2044,30 +2048,30 @@
         <v>1300</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T02244</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>32041_20500_1300_T0915_4_M10</t>
+          <t>32453_12400_1300_T02244_4_M10</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>PPF-NS-Onyxhield EXa MATT</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>303.8590094196293</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2076,40 +2080,40 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SW1250911401</t>
+          <t>SW1250908901, SW1251001801</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>32041</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12400</v>
+        <v>20710</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45947</v>
+        <v>45957</v>
       </c>
       <c r="G30" t="n">
         <v>1300</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>T01576</t>
+          <t>T01020</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>32041_12400_1300_T01576_4_M10</t>
+          <t>32556_20710_1300_T01020_4_M10</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2119,11 +2123,11 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>PPF-NS-XTM PLUS(Kaizer)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>365.1485951922102</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2132,40 +2136,40 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SW1251002001</t>
+          <t>SW1250908901, SW1251001801</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>32556</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>23311</v>
+        <v>23100</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45961</v>
+        <v>45957</v>
       </c>
       <c r="G31" t="n">
         <v>1300</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>T0915</t>
+          <t>T01226</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>32413_23311_1300_T0915_4_M10</t>
+          <t>32556_23100_1300_T01226_4_M10</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2175,11 +2179,11 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>WP-NS-IVIOS Axion</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>365.1485951922102</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2188,25 +2192,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SW1251002001</t>
+          <t>SW1250908604</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32413</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12400</v>
+        <v>20300</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45961</v>
+        <v>45965</v>
       </c>
       <c r="G32" t="n">
         <v>1300</v>
@@ -2216,22 +2220,22 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>T01288|T01715</t>
+          <t>T02668</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>PPF-NS-TGA N (OP개선)</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2244,54 +2248,54 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SW1251002401, SW1250911402</t>
+          <t>SW1250908604</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>25296</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23311</v>
+        <v>20700</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45947</v>
+        <v>45965</v>
       </c>
       <c r="G33" t="n">
         <v>1300</v>
       </c>
       <c r="H33" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>T0915|T02098</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+          <t>25296_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>SCF-NS-CG05</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>303.8590094196293</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2300,54 +2304,54 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SW1251002401, SW1250911402</t>
+          <t>SW1250908612</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32453</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12400</v>
+        <v>20300</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45947</v>
+        <v>45965</v>
       </c>
       <c r="G34" t="n">
         <v>1300</v>
       </c>
       <c r="H34" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>T02244</t>
+          <t>T02606</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>32453_12400_1300_T02244_4_M10</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>PPF-NS-Onyxhield EXa MATT</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>303.8590094196293</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2356,40 +2360,40 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SW1250908901, SW1251001801</t>
+          <t>SW1250908612</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>25441</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20710</v>
+        <v>20700</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G35" t="n">
         <v>1300</v>
       </c>
       <c r="H35" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>T01020</t>
+          <t>T0873</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>32556_20710_1300_T01020_4_M10</t>
+          <t>25441_20700_1300_T0873_4_M11</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2399,11 +2403,11 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>SCF-NS-CG28</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>365.1485951922102</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2412,54 +2416,54 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SW1250908901, SW1251001801</t>
+          <t>SW1250908609</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>32556</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>23100</v>
+        <v>20300</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G36" t="n">
         <v>1300</v>
       </c>
       <c r="H36" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>T01226</t>
+          <t>T02624</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>32556_23100_1300_T01226_4_M10</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>WP-NS-IVIOS Axion</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>365.1485951922102</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2468,25 +2472,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SW1251001301</t>
+          <t>SW1250908609</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>32776</t>
+          <t>26300</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>20902</v>
+        <v>20700</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G37" t="n">
         <v>1300</v>
@@ -2496,22 +2500,22 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>T02608|T02664</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>32776_20902_1300_T02608|T02664_4_M10</t>
+          <t>26300_20700_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>안료</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>SP-ND-ZBK40</t>
+          <t>SCF-NS-CS15</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -2524,25 +2528,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SW1251001301</t>
+          <t>SW1250908617</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>32776</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20706</v>
+        <v>20300</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G38" t="n">
         <v>1300</v>
@@ -2552,22 +2556,22 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02670</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>32776_20706_1300_None_4_M10</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>염료</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>SP-ND-ZBK40</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -2580,25 +2584,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SW1251001301</t>
+          <t>SW1250908617</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>32776</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20500</v>
+        <v>20700</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45957</v>
+        <v>45965</v>
       </c>
       <c r="G39" t="n">
         <v>1300</v>
@@ -2613,17 +2617,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>32776_20500_1300_None_4_M10</t>
+          <t>27870_20700_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>투명</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>SP-ND-ZBK40</t>
+          <t>SCF-NS-LGN58</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2636,16 +2640,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SW1251002201</t>
+          <t>SW1250906901</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32777</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23311</v>
+        <v>20902</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -2654,31 +2658,37 @@
         <v>4</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="G40" t="n">
         <v>1300</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02295</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>32777_23311_1300_None_4_M10</t>
+          <t>31600_20902_1300_T02295_4_M11</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>565.4068294660048</v>
+      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -2686,16 +2696,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SW1251002201</t>
+          <t>SW1250906901</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32777</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12400</v>
+        <v>20705</v>
       </c>
       <c r="D41" t="n">
         <v>2</v>
@@ -2704,22 +2714,22 @@
         <v>4</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="G41" t="n">
         <v>1300</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>32777_12400_1300_None_4_M10</t>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2727,8 +2737,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>565.4068294660048</v>
+      </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
@@ -2736,49 +2752,55 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SW1250908607</t>
+          <t>SW1250906901</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25004</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
         <v>4</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G42" t="n">
         <v>1300</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>25004_20300_1300_None_4_M11</t>
+          <t>31600_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+          <t>투명</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>565.4068294660048</v>
+      </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
@@ -2786,31 +2808,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SW1250908607</t>
+          <t>SW1250906901</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>25004</t>
+          <t>31600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20700</v>
+        <v>20906</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
         <v>4</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G43" t="n">
         <v>1300</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2819,16 +2841,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>25004_20700_1300_None_4_M11</t>
+          <t>31600_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>565.4068294660048</v>
+      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -2836,16 +2864,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SW1250908613</t>
+          <t>SW1250904701</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25009</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20300</v>
+        <v>20902</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -2854,31 +2882,37 @@
         <v>4</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G44" t="n">
         <v>1300</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02390|T02293</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>25009_20300_1300_None_4_M11</t>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>948.9795918367347</v>
+      </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
@@ -2886,16 +2920,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SW1250908613</t>
+          <t>SW1250904701</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25009</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20700</v>
+        <v>20705</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -2904,22 +2938,22 @@
         <v>4</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G45" t="n">
         <v>1300</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2027|W1912</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>25009_20700_1300_None_4_M11</t>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2927,8 +2961,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>948.9795918367347</v>
+      </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
@@ -2936,49 +2976,55 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SW1250908615</t>
+          <t>SW1250904701</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>25119</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>4</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G46" t="n">
         <v>1300</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>25119_20400_1300_None_4_M11</t>
+          <t>31602_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+          <t>투명</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>948.9795918367347</v>
+      </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
@@ -2986,31 +3032,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SW1250908615</t>
+          <t>SW1250904701</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25119</t>
+          <t>31602</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20500</v>
+        <v>20906</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
         <v>4</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G47" t="n">
         <v>1300</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -3019,16 +3065,22 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>25119_20500_1300_None_4_M11</t>
+          <t>31602_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>948.9795918367347</v>
+      </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
@@ -3036,25 +3088,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SW1250908615</t>
+          <t>SW1250906902</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25119</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20700</v>
+        <v>20902</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G48" t="n">
         <v>1300</v>
@@ -3064,21 +3116,27 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2039|T02496</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>25119_20700_1300_None_4_M11</t>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
@@ -3086,25 +3144,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SW1250908604</t>
+          <t>SW1250906902</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20300</v>
+        <v>20706</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G49" t="n">
         <v>1300</v>
@@ -3114,22 +3172,22 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>T02668</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>32016_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -3142,25 +3200,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SW1250908604</t>
+          <t>SW1250906902</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>25296</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G50" t="n">
         <v>1300</v>
@@ -3170,22 +3228,22 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2053|WRF065</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>SCF-NS-CG05</t>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -3198,25 +3256,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SW1250908608</t>
+          <t>SW1250906902</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>25436</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20400</v>
+        <v>20906</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G51" t="n">
         <v>1300</v>
@@ -3231,16 +3289,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25436_20400_1300_None_4_M11</t>
+          <t>32016_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
@@ -3248,49 +3312,55 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SW1250908608</t>
+          <t>SW1250904708</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>25436</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20500</v>
+        <v>20902</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G52" t="n">
         <v>1300</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02319</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>25436_20500_1300_None_4_M11</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>3337.056971666497</v>
+      </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
@@ -3298,31 +3368,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SW1250908608</t>
+          <t>SW1250904708</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>25436</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>20700</v>
+        <v>20706</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G53" t="n">
         <v>1300</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3331,7 +3401,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>25436_20700_1300_None_4_M11</t>
+          <t>32017_20706_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3339,8 +3409,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>3337.056971666497</v>
+      </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
@@ -3348,49 +3424,55 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SW1250908603</t>
+          <t>SW1250904708</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>25437</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G54" t="n">
         <v>1300</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>25437_20400_1300_None_4_M11</t>
+          <t>32017_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+          <t>투명</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>3337.056971666497</v>
+      </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
@@ -3398,31 +3480,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SW1250908603</t>
+          <t>SW1250904708</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>25437</t>
+          <t>32017</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>20500</v>
+        <v>20906</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G55" t="n">
         <v>1300</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3286</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3431,16 +3513,22 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>25437_20500_1300_None_4_M11</t>
+          <t>32017_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>3337.056971666497</v>
+      </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
@@ -3448,49 +3536,55 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SW1250908603</t>
+          <t>SW1250906903</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>25437</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>20700</v>
+        <v>20902</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G56" t="n">
         <v>1300</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02507|T02320</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>25437_20700_1300_None_4_M11</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>251.7510912597706</v>
+      </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
@@ -3498,54 +3592,54 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SW1250908605</t>
+          <t>SW1250906903</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>25438</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20300</v>
+        <v>20706</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G57" t="n">
         <v>1300</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>T02669</t>
+          <t>T02149</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>25438_20300_1300_T02669_4_M11</t>
+          <t>32018_20706_1300_T02149_4_M11</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>SCF-NS-CG15</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3554,54 +3648,54 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SW1250908605</t>
+          <t>SW1250906903</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>25438</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
         <v>4</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G58" t="n">
         <v>1300</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>25438_20700_1300_None_4_M11</t>
+          <t>32018_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>SCF-NS-CG15</t>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>251.7510912597706</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3610,31 +3704,31 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SW1250908602</t>
+          <t>SW1250906903</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>25440</t>
+          <t>32018</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20400</v>
+        <v>20906</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G59" t="n">
         <v>1300</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3643,16 +3737,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>25440_20400_1300_None_4_M11</t>
+          <t>32018_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>251.7510912597706</v>
+      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -3660,25 +3760,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SW1250908602</t>
+          <t>SW1250906904</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25440</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20500</v>
+        <v>20902</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G60" t="n">
         <v>1300</v>
@@ -3688,21 +3788,27 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02508|T02321</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>25440_20500_1300_None_4_M11</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
@@ -3710,25 +3816,25 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SW1250908602</t>
+          <t>SW1250906904</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25440</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20700</v>
+        <v>20706</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G61" t="n">
         <v>1300</v>
@@ -3738,12 +3844,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02149|W1817</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>25440_20700_1300_None_4_M11</t>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3751,8 +3857,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
@@ -3760,25 +3872,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SW1250908612</t>
+          <t>SW1250906904</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G62" t="n">
         <v>1300</v>
@@ -3788,22 +3900,22 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>T02606</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>32019_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -3816,25 +3928,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SW1250908612</t>
+          <t>SW1250906904</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25441</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20700</v>
+        <v>20906</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G63" t="n">
         <v>1300</v>
@@ -3844,22 +3956,22 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>T0873</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>25441_20700_1300_T0873_4_M11</t>
+          <t>32019_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>SCF-NS-CG28</t>
+          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -3872,16 +3984,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SW1250908611</t>
+          <t>SW1250904703</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25443</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20400</v>
+        <v>20902</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -3890,31 +4002,37 @@
         <v>4</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G64" t="n">
         <v>1300</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>3565</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W2082|T02498</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>25443_20400_1300_None_4_M11</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>3624.072379790587</v>
+      </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
@@ -3922,16 +4040,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SW1250908611</t>
+          <t>SW1250904703</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>25443</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20500</v>
+        <v>20702</v>
       </c>
       <c r="D65" t="n">
         <v>2</v>
@@ -3940,31 +4058,37 @@
         <v>4</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G65" t="n">
         <v>1300</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>3565</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>25443_20500_1300_None_4_M11</t>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>3624.072379790587</v>
+      </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
@@ -3972,16 +4096,16 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SW1250908611</t>
+          <t>SW1250904703</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25443</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="D66" t="n">
         <v>3</v>
@@ -3990,31 +4114,37 @@
         <v>4</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G66" t="n">
         <v>1300</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>3565</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>25443_20700_1300_None_4_M11</t>
+          <t>32265_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+          <t>투명</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>3624.072379790587</v>
+      </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
@@ -4022,31 +4152,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SW1250908601</t>
+          <t>SW1250904703</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>25444</t>
+          <t>32265</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20400</v>
+        <v>20906</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
         <v>4</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G67" t="n">
         <v>1300</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3565</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -4055,16 +4185,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>25444_20400_1300_None_4_M11</t>
+          <t>32265_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+          <t>인쇄</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 1590</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>3624.072379790587</v>
+      </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
@@ -4072,25 +4208,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SW1250908601</t>
+          <t>SW1250904705</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25444</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20500</v>
+        <v>20902</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G68" t="n">
         <v>1300</v>
@@ -4100,21 +4236,27 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>t02604|W2051</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>25444_20500_1300_None_4_M11</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
@@ -4122,25 +4264,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SW1250908601</t>
+          <t>SW1250904705</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>25444</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20700</v>
+        <v>20702</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G69" t="n">
         <v>1300</v>
@@ -4150,12 +4292,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02150|W1818</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>25444_20700_1300_None_4_M11</t>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4163,8 +4305,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
@@ -4172,25 +4320,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SW1250908609</t>
+          <t>SW1250904705</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G70" t="n">
         <v>1300</v>
@@ -4200,22 +4348,22 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>T02624</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>32267_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -4228,25 +4376,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SW1250908609</t>
+          <t>SW1250904705</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>32267</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>20700</v>
+        <v>20906</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G71" t="n">
         <v>1300</v>
@@ -4256,22 +4404,22 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>T02149</t>
+          <t>None</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>32267_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>SCF-NS-CS15</t>
+          <t>RAINBOW(KOR)-ND-IS200 3390</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -4284,16 +4432,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SW1250908614</t>
+          <t>SW1250904707</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26304</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20300</v>
+        <v>20902</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -4302,31 +4450,37 @@
         <v>4</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G72" t="n">
         <v>1300</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T02619|T02326</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>26304_20300_1300_None_4_M11</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+          <t>안료</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1801.039649373153</v>
+      </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
@@ -4334,16 +4488,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SW1250908614</t>
+          <t>SW1250904707</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>26304</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20700</v>
+        <v>20706</v>
       </c>
       <c r="D73" t="n">
         <v>2</v>
@@ -4352,22 +4506,22 @@
         <v>4</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G73" t="n">
         <v>1300</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>W1817</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>26304_20700_1300_None_4_M11</t>
+          <t>32363_20706_1300_W1817_4_M11</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4375,8 +4529,14 @@
           <t>SR</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1801.039649373153</v>
+      </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
@@ -4384,54 +4544,54 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SW1250908617</t>
+          <t>SW1250904707</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G74" t="n">
         <v>1300</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>T02670</t>
+          <t>WRF065</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>32363_20500_1300_WRF065_4_M11</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>염료</t>
+          <t>투명</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1801.039649373153</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4440,31 +4600,31 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SW1250908617</t>
+          <t>SW1250904707</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>32363</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>20700</v>
+        <v>20906</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
         <v>4</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45965</v>
+        <v>45964</v>
       </c>
       <c r="G75" t="n">
         <v>1300</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -4473,21 +4633,21 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>27870_20700_1300_None_4_M11</t>
+          <t>32363_20906_1300_None_4_M11</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>인쇄</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>SCF-NS-LGN58</t>
+          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1801.039649373153</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4496,16 +4656,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SW1250908616</t>
+          <t>SW1251003601</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>27911</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>20400</v>
+        <v>23311</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -4520,25 +4680,31 @@
         <v>1300</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T0915</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>27911_20400_1300_None_4_M11</t>
+          <t>32470_23311_1300_T0915_4_M11</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+          <t>투명</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>230.0848757541671</v>
+      </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
@@ -4546,16 +4712,16 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SW1250908616</t>
+          <t>SW1251003601</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>27911</t>
+          <t>32470</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>20500</v>
+        <v>12400</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -4570,2354 +4736,32 @@
         <v>1300</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>T01521</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>27911_20500_1300_None_4_M11</t>
+          <t>32470_12400_1300_T01521_4_M11</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>230.0848757541671</v>
+      </c>
       <c r="N77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SW1250908616</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>27911</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>20700</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" t="n">
-        <v>4</v>
-      </c>
-      <c r="F78" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>27911_20700_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SW1250908610</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>28066</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>20400</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>4</v>
-      </c>
-      <c r="F79" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>28066_20400_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>염료</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SW1250908610</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>28066</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" t="n">
-        <v>4</v>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>28066_20500_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SW1250908610</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>28066</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>20700</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>28066_20700_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>SW1250906901</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>31600</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H82" t="n">
-        <v>558</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>T02295</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>31600_20902_1300_T02295_4_M11</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>565.4068294660048</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SW1250906901</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>31600</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>20705</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>4</v>
-      </c>
-      <c r="F83" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H83" t="n">
-        <v>558</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>W2027|W1912</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>565.4068294660048</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>SW1250906901</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>31600</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>4</v>
-      </c>
-      <c r="F84" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H84" t="n">
-        <v>558</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>31600_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>565.4068294660048</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SW1250906901</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>31600</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D85" t="n">
-        <v>4</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H85" t="n">
-        <v>558</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>31600_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-V90 0590(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>565.4068294660048</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SW1250904701</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>31602</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4</v>
-      </c>
-      <c r="F86" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H86" t="n">
-        <v>930</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>T02390|T02293</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>31602_20902_1300_T02390|T02293_4_M11</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>948.9795918367347</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SW1250904701</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>31602</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>20705</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H87" t="n">
-        <v>930</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>W2027|W1912</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>948.9795918367347</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SW1250904701</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>31602</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D88" t="n">
-        <v>3</v>
-      </c>
-      <c r="E88" t="n">
-        <v>4</v>
-      </c>
-      <c r="F88" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H88" t="n">
-        <v>930</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>948.9795918367347</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SW1250904701</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>31602</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H89" t="n">
-        <v>930</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>31602_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DC-V90 3090(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>948.9795918367347</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SW1250906902</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>32016</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" t="n">
-        <v>4</v>
-      </c>
-      <c r="F90" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>W2039|T02496</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>32016_20902_1300_W2039|T02496_4_M11</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SW1250906902</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>32016</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>20706</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>4</v>
-      </c>
-      <c r="F91" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>T02149|W1817</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>32016_20706_1300_T02149|W1817_4_M11</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SW1250906902</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>32016</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D92" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>W2053|WRF065</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SW1250906902</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>32016</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>32016_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 05(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SW1250904708</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>32017</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3286</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>T02319</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>3337.056971666497</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>SW1250904708</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>32017</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>20706</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>4</v>
-      </c>
-      <c r="F95" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H95" t="n">
-        <v>3286</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>32017_20706_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>3337.056971666497</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>SW1250904708</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>32017</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D96" t="n">
-        <v>3</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3286</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>3337.056971666497</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SW1250904708</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>32017</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D97" t="n">
-        <v>4</v>
-      </c>
-      <c r="E97" t="n">
-        <v>4</v>
-      </c>
-      <c r="F97" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3286</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>32017_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 12(RHN31%)</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>3337.056971666497</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>SW1250906903</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>32018</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H98" t="n">
-        <v>248</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>T02507|T02320</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>251.7510912597706</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>SW1250906903</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>32018</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>20706</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="n">
-        <v>4</v>
-      </c>
-      <c r="F99" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H99" t="n">
-        <v>248</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>T02149</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>251.7510912597706</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SW1250906903</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>32018</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="n">
-        <v>4</v>
-      </c>
-      <c r="F100" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H100" t="n">
-        <v>248</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>251.7510912597706</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SW1250906903</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>32018</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D101" t="n">
-        <v>4</v>
-      </c>
-      <c r="E101" t="n">
-        <v>4</v>
-      </c>
-      <c r="F101" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H101" t="n">
-        <v>248</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>32018_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 23(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>251.7510912597706</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SW1250906904</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>32019</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>T02508|T02321</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SW1250906904</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>32019</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>20706</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>T02149|W1817</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>0</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>SW1250906904</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>32019</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D104" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>4</v>
-      </c>
-      <c r="F104" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SW1250906904</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>32019</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" t="n">
-        <v>4</v>
-      </c>
-      <c r="F105" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>32019_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS200 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SW1250904703</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>32265</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>4</v>
-      </c>
-      <c r="F106" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H106" t="n">
-        <v>3565</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>W2082|T02498</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>3624.072379790587</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SW1250904703</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>32265</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>20702</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="n">
-        <v>4</v>
-      </c>
-      <c r="F107" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3565</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>T02150|W1818</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>3624.072379790587</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SW1250904703</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>32265</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D108" t="n">
-        <v>3</v>
-      </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
-      <c r="F108" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H108" t="n">
-        <v>3565</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>3624.072379790587</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SW1250904703</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>32265</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4</v>
-      </c>
-      <c r="E109" t="n">
-        <v>4</v>
-      </c>
-      <c r="F109" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H109" t="n">
-        <v>3565</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>32265_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 1590</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>3624.072379790587</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>SW1250904705</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>32267</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>t02604|W2051</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SW1250904705</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>32267</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>20702</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4</v>
-      </c>
-      <c r="F111" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>T02150|W1818</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SW1250904705</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>32267</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>SW1250904705</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>32267</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4</v>
-      </c>
-      <c r="F113" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>32267_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-ND-IS200 3390</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SW1250904707</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>32363</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>20902</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>T02619|T02326</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>안료</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1801.039649373153</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>SW1250904707</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>32363</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>20706</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>4</v>
-      </c>
-      <c r="F115" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>W1817</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1801.039649373153</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>SW1250904707</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>32363</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>20500</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>4</v>
-      </c>
-      <c r="F116" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>WRF065</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1801.039649373153</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>SW1250904707</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>32363</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>20906</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>4</v>
-      </c>
-      <c r="F117" s="2" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1767</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>32363_20906_1300_None_4_M11</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>인쇄</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>RAINBOW(KOR)-DM-VS100 30(RHN40%)</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1801.039649373153</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SW1251003601</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>32470</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>23311</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4</v>
-      </c>
-      <c r="F118" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H118" t="n">
-        <v>225</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>T0915</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>32470_23311_1300_T0915_4_M11</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>투명</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>230.0848757541671</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>SW1251003601</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>32470</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>12400</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="n">
-        <v>4</v>
-      </c>
-      <c r="F119" s="2" t="n">
-        <v>45965</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H119" t="n">
-        <v>225</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>T01521</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>SR</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>PPF-NS-ULTRAFIT XP SUPREME TOP(PX93-15)</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>230.0848757541671</v>
-      </c>
-      <c r="N119" t="n">
         <v>0</v>
       </c>
     </row>

--- a/python_engine/sequence_seperated_order.xlsx
+++ b/python_engine/sequence_seperated_order.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,11 +503,6 @@
           <t>production_length</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>aging_time</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -561,9 +556,6 @@
       <c r="M2" t="n">
         <v>148.6374896779521</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -617,9 +609,6 @@
       <c r="M3" t="n">
         <v>148.6374896779521</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -673,9 +662,6 @@
       <c r="M4" t="n">
         <v>148.6374896779521</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -729,9 +715,6 @@
       <c r="M5" t="n">
         <v>148.6374896779521</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -785,9 +768,6 @@
       <c r="M6" t="n">
         <v>630.2093921528767</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -841,9 +821,6 @@
       <c r="M7" t="n">
         <v>630.2093921528767</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -897,9 +874,6 @@
       <c r="M8" t="n">
         <v>630.2093921528767</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -953,9 +927,6 @@
       <c r="M9" t="n">
         <v>630.2093921528767</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1009,9 +980,6 @@
       <c r="M10" t="n">
         <v>157.8090002036245</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1065,9 +1033,6 @@
       <c r="M11" t="n">
         <v>157.8090002036245</v>
       </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1121,9 +1086,6 @@
       <c r="M12" t="n">
         <v>157.8090002036245</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1177,9 +1139,6 @@
       <c r="M13" t="n">
         <v>157.8090002036245</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1233,9 +1192,6 @@
       <c r="M14" t="n">
         <v>106.4368981246832</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1289,9 +1245,6 @@
       <c r="M15" t="n">
         <v>106.4368981246832</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1345,9 +1298,6 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1401,9 +1351,6 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1457,9 +1404,6 @@
       <c r="M18" t="n">
         <v>794.3829438294382</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1513,9 +1457,6 @@
       <c r="M19" t="n">
         <v>794.3829438294382</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1569,9 +1510,6 @@
       <c r="M20" t="n">
         <v>794.3829438294382</v>
       </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1625,9 +1563,6 @@
       <c r="M21" t="n">
         <v>794.3829438294382</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1681,9 +1616,6 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1737,9 +1669,6 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1793,9 +1722,6 @@
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1849,9 +1775,6 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1905,9 +1828,6 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1961,9 +1881,6 @@
       <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2017,9 +1934,6 @@
       <c r="M28" t="n">
         <v>303.8590094196293</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2073,9 +1987,6 @@
       <c r="M29" t="n">
         <v>303.8590094196293</v>
       </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2129,9 +2040,6 @@
       <c r="M30" t="n">
         <v>365.1485951922102</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2185,9 +2093,6 @@
       <c r="M31" t="n">
         <v>365.1485951922102</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2241,9 +2146,6 @@
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2297,9 +2199,6 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2353,9 +2252,6 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2409,9 +2305,6 @@
       <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2465,9 +2358,6 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2521,9 +2411,6 @@
       <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2577,9 +2464,6 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2633,9 +2517,6 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2689,9 +2570,6 @@
       <c r="M40" t="n">
         <v>565.4068294660048</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2745,9 +2623,6 @@
       <c r="M41" t="n">
         <v>565.4068294660048</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2801,9 +2676,6 @@
       <c r="M42" t="n">
         <v>565.4068294660048</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2857,9 +2729,6 @@
       <c r="M43" t="n">
         <v>565.4068294660048</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2913,9 +2782,6 @@
       <c r="M44" t="n">
         <v>948.9795918367347</v>
       </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2969,9 +2835,6 @@
       <c r="M45" t="n">
         <v>948.9795918367347</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3025,9 +2888,6 @@
       <c r="M46" t="n">
         <v>948.9795918367347</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3081,9 +2941,6 @@
       <c r="M47" t="n">
         <v>948.9795918367347</v>
       </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3137,9 +2994,6 @@
       <c r="M48" t="n">
         <v>0</v>
       </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3193,9 +3047,6 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3249,9 +3100,6 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3305,9 +3153,6 @@
       <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3361,9 +3206,6 @@
       <c r="M52" t="n">
         <v>3337.056971666497</v>
       </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3417,9 +3259,6 @@
       <c r="M53" t="n">
         <v>3337.056971666497</v>
       </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3473,9 +3312,6 @@
       <c r="M54" t="n">
         <v>3337.056971666497</v>
       </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3529,9 +3365,6 @@
       <c r="M55" t="n">
         <v>3337.056971666497</v>
       </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3585,9 +3418,6 @@
       <c r="M56" t="n">
         <v>251.7510912597706</v>
       </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3641,9 +3471,6 @@
       <c r="M57" t="n">
         <v>251.7510912597706</v>
       </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3697,9 +3524,6 @@
       <c r="M58" t="n">
         <v>251.7510912597706</v>
       </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3753,9 +3577,6 @@
       <c r="M59" t="n">
         <v>251.7510912597706</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3809,9 +3630,6 @@
       <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3865,9 +3683,6 @@
       <c r="M61" t="n">
         <v>0</v>
       </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3921,9 +3736,6 @@
       <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3977,9 +3789,6 @@
       <c r="M63" t="n">
         <v>0</v>
       </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4033,9 +3842,6 @@
       <c r="M64" t="n">
         <v>3624.072379790587</v>
       </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4089,9 +3895,6 @@
       <c r="M65" t="n">
         <v>3624.072379790587</v>
       </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4145,9 +3948,6 @@
       <c r="M66" t="n">
         <v>3624.072379790587</v>
       </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4201,9 +4001,6 @@
       <c r="M67" t="n">
         <v>3624.072379790587</v>
       </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4257,9 +4054,6 @@
       <c r="M68" t="n">
         <v>0</v>
       </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4313,9 +4107,6 @@
       <c r="M69" t="n">
         <v>0</v>
       </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4369,9 +4160,6 @@
       <c r="M70" t="n">
         <v>0</v>
       </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4425,9 +4213,6 @@
       <c r="M71" t="n">
         <v>0</v>
       </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4481,9 +4266,6 @@
       <c r="M72" t="n">
         <v>1801.039649373153</v>
       </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4537,9 +4319,6 @@
       <c r="M73" t="n">
         <v>1801.039649373153</v>
       </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4593,9 +4372,6 @@
       <c r="M74" t="n">
         <v>1801.039649373153</v>
       </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4649,9 +4425,6 @@
       <c r="M75" t="n">
         <v>1801.039649373153</v>
       </c>
-      <c r="N75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4705,9 +4478,6 @@
       <c r="M76" t="n">
         <v>230.0848757541671</v>
       </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4760,9 +4530,6 @@
       </c>
       <c r="M77" t="n">
         <v>230.0848757541671</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
